--- a/bin/lib/Astro_Libraries/spectrum_fitting/lines_data.xlsx
+++ b/bin/lib/Astro_Libraries/spectrum_fitting/lines_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="158">
   <si>
     <t xml:space="preserve">wavelength</t>
   </si>
@@ -44,433 +44,451 @@
     <t xml:space="preserve">3835.0</t>
   </si>
   <si>
+    <t xml:space="preserve">H1r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3835A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2_3726A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3726.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3726A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2_3729A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3728.815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3729A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_3889A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3889.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3889A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1_3889A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_3970A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3970.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3970A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1_4026A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4026.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4026A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_4102A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4102.742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4102A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_4341A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4341.471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4341A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O3_4363A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4363.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4363A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1_4471A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4471.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4471A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar4_4740A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4740A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He2_4686A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4686.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He2r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4686A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_4861A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4861.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4861A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O3_4959A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4958.911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4959A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O3_5007A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5006.843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5007A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2_5755A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5755.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5755A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1_5876A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5876.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5876A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3_6312A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6312.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6312A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2_6548A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6548.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6548A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_6563A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6562.819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6563A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2_6584A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6583.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6584A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1_6678A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6678.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6678A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2_6716A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6716.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6716A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2_6731A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6730.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6731A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1_7065A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7065.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7065A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1_7281A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7281.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7281A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar3_7136A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7136A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2_7319A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7319.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7319A+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7319A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2_7330A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7330.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7330A+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7330A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar3_7751A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7751A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3_9069A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9068.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9069A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_9229A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9229.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9229A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3_9531A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9531.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9531A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1_9546A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9546.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9546A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He1_10830A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10830.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10830A</t>
+  </si>
+  <si>
     <t xml:space="preserve">H1</t>
   </si>
   <si>
-    <t xml:space="preserve">3835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3835A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2_3726A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3726.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3726A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2_3729A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3728.815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3729A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_3889A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3889.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3889A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He1_3889A</t>
+    <t xml:space="preserve">4102.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4341.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6563.0</t>
   </si>
   <si>
     <t xml:space="preserve">He1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_3970A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3970.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3970A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He1_4026A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4026.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4026A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_4102A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4102.742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4102A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_4341A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4341.471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4341A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O3_4363A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4363.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4363A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He1_4471A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4471.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4471A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar4_4740A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4740A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_4861A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4861.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4861A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O3_4959A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4958.911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4959A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O3_5007A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5006.843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5007A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2_5755A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5755.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5755A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He1_5876A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5876.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5876A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3_6312A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6312.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6312A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2_6548A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6548.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6548A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_6563A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6562.819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6563A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2_6584A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6583.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6584A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He1_6678A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6678.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6678A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2_6716A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6716.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6716A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2_6731A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6730.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6731A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He1_7065A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7065.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7065A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He1_7281A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7281.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7281A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar3_7136A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7136A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2_7319A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7319.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7319A+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7319A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2_7330A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7330.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7330A+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7330A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar3_7751A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7751A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3_9069A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9068.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9069A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_9229A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9229.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9229A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3_9531A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9531.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9531A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1_9546A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9546.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9546A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He1_10830A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10830.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10830A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4102.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4341.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6563.0</t>
   </si>
   <si>
     <t xml:space="preserve">7319</t>
@@ -725,21 +743,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.8010204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="10.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,10 +1104,10 @@
         <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>4686</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>58</v>
@@ -1112,7 +1130,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>61</v>
@@ -1121,7 +1139,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -1164,13 +1182,13 @@
         <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
@@ -1184,13 +1202,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>74</v>
@@ -1199,7 +1217,7 @@
         <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
@@ -1216,16 +1234,16 @@
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -1236,13 +1254,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>83</v>
@@ -1268,7 +1286,7 @@
         <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>87</v>
@@ -1277,7 +1295,7 @@
         <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
@@ -1294,7 +1312,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>91</v>
@@ -1303,7 +1321,7 @@
         <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
@@ -1320,7 +1338,7 @@
         <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>95</v>
@@ -1329,7 +1347,7 @@
         <v>96</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
@@ -1346,16 +1364,16 @@
         <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
@@ -1366,13 +1384,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>104</v>
@@ -1398,7 +1416,7 @@
         <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>108</v>
@@ -1407,7 +1425,7 @@
         <v>109</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
@@ -1446,20 +1464,20 @@
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>7135.79</v>
+      <c r="B28" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>7136</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
@@ -1470,16 +1488,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="B29" s="1" t="n">
+        <v>7135.79</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>7136</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>120</v>
@@ -1513,22 +1531,28 @@
       <c r="F30" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>7751</v>
+      <c r="B31" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>7751</v>
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>16</v>
@@ -1536,16 +1560,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>7751</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>7751</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>130</v>
@@ -1562,7 +1586,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>133</v>
@@ -1571,7 +1595,7 @@
         <v>134</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,7 +1606,7 @@
         <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>137</v>
@@ -1591,7 +1615,7 @@
         <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,7 +1626,7 @@
         <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>141</v>
@@ -1611,7 +1635,7 @@
         <v>142</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,7 +1646,7 @@
         <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>145</v>
@@ -1631,13 +1655,33 @@
         <v>146</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1652,13 +1696,13 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -1707,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>23</v>
@@ -1727,7 +1771,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>29</v>
@@ -1744,10 +1788,10 @@
         <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>37</v>
@@ -1764,10 +1808,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>41</v>
@@ -1781,19 +1825,19 @@
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -1801,19 +1845,19 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -1821,19 +1865,19 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -1841,19 +1885,19 @@
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -1875,7 +1919,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>23</v>
@@ -1895,7 +1939,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>33</v>
@@ -1915,7 +1959,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>50</v>
@@ -1929,19 +1973,19 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -1949,19 +1993,19 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -1969,19 +2013,19 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>10</v>
@@ -1989,19 +2033,19 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -2009,19 +2053,19 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -2037,19 +2081,19 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
@@ -2057,19 +2101,19 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
@@ -2085,19 +2129,19 @@
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>16</v>
@@ -2105,19 +2149,19 @@
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>16</v>
@@ -2125,19 +2169,19 @@
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>16</v>
@@ -2193,19 +2237,19 @@
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>16</v>
@@ -2213,19 +2257,19 @@
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>16</v>
@@ -2261,19 +2305,19 @@
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>16</v>
@@ -2281,19 +2325,19 @@
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>16</v>
@@ -2309,19 +2353,19 @@
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>16</v>
@@ -2329,19 +2373,19 @@
     </row>
     <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>16</v>
@@ -2349,19 +2393,19 @@
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>16</v>
@@ -2377,19 +2421,19 @@
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>7135.79</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>7136</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>16</v>
@@ -2397,19 +2441,19 @@
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>7751</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>7751</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>16</v>
@@ -2438,7 +2482,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
